--- a/Allocation/Thaba-Tseka/Mantsonyane.xlsx
+++ b/Allocation/Thaba-Tseka/Mantsonyane.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="7635" windowHeight="5460" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="7635" windowHeight="5460" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="MASHAI" sheetId="4" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="9" r:id="rId2"/>
     <sheet name="mantsonyane" sheetId="10" r:id="rId3"/>
     <sheet name="Final" sheetId="11" r:id="rId4"/>
+    <sheet name="New Codes" sheetId="12" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Final!$C$1:$E$1</definedName>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="407">
   <si>
     <t>NAME AND SURNAME</t>
   </si>
@@ -1810,6 +1811,57 @@
   </si>
   <si>
     <t>d9xqjr</t>
+  </si>
+  <si>
+    <t>10720132057</t>
+  </si>
+  <si>
+    <t>10720132058</t>
+  </si>
+  <si>
+    <t>Masentle Moriana</t>
+  </si>
+  <si>
+    <t>Kopano Motselekatse</t>
+  </si>
+  <si>
+    <t>Loape Mabaena</t>
+  </si>
+  <si>
+    <t>Matholoana Seithleko</t>
+  </si>
+  <si>
+    <t>Mankautsane Ratoko</t>
+  </si>
+  <si>
+    <t>10720132010</t>
+  </si>
+  <si>
+    <t>10720132011</t>
+  </si>
+  <si>
+    <t>10720132012</t>
+  </si>
+  <si>
+    <t>10720132013</t>
+  </si>
+  <si>
+    <t>Letlotlo Kapoko</t>
+  </si>
+  <si>
+    <t>Khoaeane  Motubei</t>
+  </si>
+  <si>
+    <t>Lijeng Rapoli</t>
+  </si>
+  <si>
+    <t>hyneaj</t>
+  </si>
+  <si>
+    <t>Tsoloane Theko</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
 </sst>
 </file>
@@ -4000,7 +4052,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D110"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
+    <sheetView topLeftCell="A89" workbookViewId="0">
       <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
@@ -5104,8 +5156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B79"/>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61:D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7610,4 +7662,2285 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I80"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A58" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E1" t="s">
+        <v>306</v>
+      </c>
+      <c r="F1" t="s">
+        <v>307</v>
+      </c>
+      <c r="G1" t="s">
+        <v>308</v>
+      </c>
+      <c r="H1" t="s">
+        <v>309</v>
+      </c>
+      <c r="I1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>10710133018</v>
+      </c>
+      <c r="E2" t="str">
+        <f t="shared" ref="E2:E60" si="0">LEFT(D2,2)</f>
+        <v>10</v>
+      </c>
+      <c r="F2" t="str">
+        <f t="shared" ref="F2:F60" si="1">MID(D2,3,2)</f>
+        <v>71</v>
+      </c>
+      <c r="G2" t="str">
+        <f>CONCATENATE("K",MID(D2,5,2))</f>
+        <v>K01</v>
+      </c>
+      <c r="H2" t="str">
+        <f t="shared" ref="H2:H60" si="2">MID(D2,7,1)</f>
+        <v>3</v>
+      </c>
+      <c r="I2" t="str">
+        <f t="shared" ref="I2:I60" si="3">MID(D2,8,1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>390</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G60" si="4">CONCATENATE("K",MID(D3,5,2))</f>
+        <v>K01</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>391</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="4"/>
+        <v>K01</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>315</v>
+      </c>
+      <c r="B5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>10720132044</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="4"/>
+        <v>K01</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>316</v>
+      </c>
+      <c r="B6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>10720132046</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="4"/>
+        <v>K01</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>317</v>
+      </c>
+      <c r="B7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>10720132047</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="4"/>
+        <v>K01</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>318</v>
+      </c>
+      <c r="B8" t="s">
+        <v>236</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>10720132048</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="4"/>
+        <v>K01</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>319</v>
+      </c>
+      <c r="B9" t="s">
+        <v>227</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>10720132049</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="4"/>
+        <v>K01</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>320</v>
+      </c>
+      <c r="B10" t="s">
+        <v>392</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>10720132050</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="4"/>
+        <v>K01</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>321</v>
+      </c>
+      <c r="B11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>10720132051</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="4"/>
+        <v>K01</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>322</v>
+      </c>
+      <c r="B12" t="s">
+        <v>237</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>10720132052</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="4"/>
+        <v>K01</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>323</v>
+      </c>
+      <c r="B13" t="s">
+        <v>241</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>10720132053</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="4"/>
+        <v>K01</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>324</v>
+      </c>
+      <c r="B14" t="s">
+        <v>232</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>10720132054</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="4"/>
+        <v>K01</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>325</v>
+      </c>
+      <c r="B15" t="s">
+        <v>393</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>10720132055</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="4"/>
+        <v>K01</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>326</v>
+      </c>
+      <c r="B16" t="s">
+        <v>228</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>10720132056</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="4"/>
+        <v>K01</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>327</v>
+      </c>
+      <c r="B17" t="s">
+        <v>231</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>10720132059</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="4"/>
+        <v>K01</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>328</v>
+      </c>
+      <c r="B18" t="s">
+        <v>242</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>10720133001</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="4"/>
+        <v>K01</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>329</v>
+      </c>
+      <c r="B19" t="s">
+        <v>243</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>10720133002</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="4"/>
+        <v>K01</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>330</v>
+      </c>
+      <c r="B20" t="s">
+        <v>244</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>10720133003</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="4"/>
+        <v>K01</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>331</v>
+      </c>
+      <c r="B21" t="s">
+        <v>394</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>10720133004</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="4"/>
+        <v>K01</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>332</v>
+      </c>
+      <c r="B22" t="s">
+        <v>395</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>10720133005</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="4"/>
+        <v>K01</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>333</v>
+      </c>
+      <c r="B23" t="s">
+        <v>247</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>10720133006</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="4"/>
+        <v>K01</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>334</v>
+      </c>
+      <c r="B24" t="s">
+        <v>396</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>10720133007</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="4"/>
+        <v>K01</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>335</v>
+      </c>
+      <c r="B25" t="s">
+        <v>249</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>10720133008</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="4"/>
+        <v>K01</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>336</v>
+      </c>
+      <c r="B26" t="s">
+        <v>250</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>10720133009</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="4"/>
+        <v>K01</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>337</v>
+      </c>
+      <c r="B27" t="s">
+        <v>251</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>397</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="4"/>
+        <v>K01</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>338</v>
+      </c>
+      <c r="B28" t="s">
+        <v>252</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>398</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="4"/>
+        <v>K01</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>339</v>
+      </c>
+      <c r="B29" t="s">
+        <v>253</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>399</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="4"/>
+        <v>K01</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>340</v>
+      </c>
+      <c r="B30" t="s">
+        <v>254</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>400</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="4"/>
+        <v>K01</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
+        <v>341</v>
+      </c>
+      <c r="B31" t="s">
+        <v>223</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>10720133014</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="4"/>
+        <v>K01</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
+        <v>342</v>
+      </c>
+      <c r="B32" t="s">
+        <v>224</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>10720133015</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="4"/>
+        <v>K01</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>343</v>
+      </c>
+      <c r="B33" t="s">
+        <v>255</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>10720133016</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="4"/>
+        <v>K01</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
+        <v>344</v>
+      </c>
+      <c r="B34" t="s">
+        <v>256</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>10720133017</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="4"/>
+        <v>K01</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
+        <v>345</v>
+      </c>
+      <c r="B35" t="s">
+        <v>258</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>10720133019</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="4"/>
+        <v>K01</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I35" t="str">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
+        <v>346</v>
+      </c>
+      <c r="B36" t="s">
+        <v>261</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>10720133020</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="4"/>
+        <v>K01</v>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I36" t="str">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>347</v>
+      </c>
+      <c r="B37" t="s">
+        <v>260</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>10720133021</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="4"/>
+        <v>K01</v>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I37" t="str">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>348</v>
+      </c>
+      <c r="B38" t="s">
+        <v>259</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>10720133022</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="4"/>
+        <v>K01</v>
+      </c>
+      <c r="H38" t="str">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I38" t="str">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>349</v>
+      </c>
+      <c r="B39" t="s">
+        <v>262</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>10720133023</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="4"/>
+        <v>K01</v>
+      </c>
+      <c r="H39" t="str">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I39" t="str">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
+        <v>350</v>
+      </c>
+      <c r="B40" t="s">
+        <v>263</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>10720133024</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="4"/>
+        <v>K01</v>
+      </c>
+      <c r="H40" t="str">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I40" t="str">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
+        <v>351</v>
+      </c>
+      <c r="B41" t="s">
+        <v>401</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>10720133025</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="4"/>
+        <v>K01</v>
+      </c>
+      <c r="H41" t="str">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I41" t="str">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
+        <v>352</v>
+      </c>
+      <c r="B42" t="s">
+        <v>264</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>10720133026</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="4"/>
+        <v>K01</v>
+      </c>
+      <c r="H42" t="str">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I42" t="str">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>353</v>
+      </c>
+      <c r="B43" t="s">
+        <v>265</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>10720133027</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="4"/>
+        <v>K01</v>
+      </c>
+      <c r="H43" t="str">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I43" t="str">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
+        <v>354</v>
+      </c>
+      <c r="B44" t="s">
+        <v>266</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>10720133028</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="4"/>
+        <v>K01</v>
+      </c>
+      <c r="H44" t="str">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I44" t="str">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
+        <v>355</v>
+      </c>
+      <c r="B45" t="s">
+        <v>274</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>10720133029</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="4"/>
+        <v>K01</v>
+      </c>
+      <c r="H45" t="str">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I45" t="str">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" t="s">
+        <v>356</v>
+      </c>
+      <c r="B46" t="s">
+        <v>282</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>10720133030</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F46" t="str">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="4"/>
+        <v>K01</v>
+      </c>
+      <c r="H46" t="str">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I46" t="str">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" t="s">
+        <v>357</v>
+      </c>
+      <c r="B47" t="s">
+        <v>402</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>10720133031</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F47" t="str">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="4"/>
+        <v>K01</v>
+      </c>
+      <c r="H47" t="str">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I47" t="str">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" t="s">
+        <v>358</v>
+      </c>
+      <c r="B48" t="s">
+        <v>276</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>10720133032</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F48" t="str">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="4"/>
+        <v>K01</v>
+      </c>
+      <c r="H48" t="str">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I48" t="str">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" t="s">
+        <v>359</v>
+      </c>
+      <c r="B49" t="s">
+        <v>277</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>10720133033</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F49" t="str">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="4"/>
+        <v>K01</v>
+      </c>
+      <c r="H49" t="str">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I49" t="str">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" t="s">
+        <v>360</v>
+      </c>
+      <c r="B50" t="s">
+        <v>278</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>10720133034</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F50" t="str">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="4"/>
+        <v>K01</v>
+      </c>
+      <c r="H50" t="str">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I50" t="str">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" t="s">
+        <v>361</v>
+      </c>
+      <c r="B51" t="s">
+        <v>279</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>10720133035</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F51" t="str">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="4"/>
+        <v>K01</v>
+      </c>
+      <c r="H51" t="str">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I51" t="str">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" t="s">
+        <v>362</v>
+      </c>
+      <c r="B52" t="s">
+        <v>280</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>10720133036</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F52" t="str">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="4"/>
+        <v>K01</v>
+      </c>
+      <c r="H52" t="str">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I52" t="str">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" t="s">
+        <v>363</v>
+      </c>
+      <c r="B53" t="s">
+        <v>403</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>10720133037</v>
+      </c>
+      <c r="E53" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F53" t="str">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="4"/>
+        <v>K01</v>
+      </c>
+      <c r="H53" t="str">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I53" t="str">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" t="s">
+        <v>364</v>
+      </c>
+      <c r="B54" t="s">
+        <v>268</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>10720133038</v>
+      </c>
+      <c r="E54" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F54" t="str">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="G54" t="str">
+        <f t="shared" si="4"/>
+        <v>K01</v>
+      </c>
+      <c r="H54" t="str">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I54" t="str">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" t="s">
+        <v>365</v>
+      </c>
+      <c r="B55" t="s">
+        <v>269</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>10720133039</v>
+      </c>
+      <c r="E55" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F55" t="str">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="G55" t="str">
+        <f t="shared" si="4"/>
+        <v>K01</v>
+      </c>
+      <c r="H55" t="str">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I55" t="str">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" t="s">
+        <v>366</v>
+      </c>
+      <c r="B56" t="s">
+        <v>270</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>10720133040</v>
+      </c>
+      <c r="E56" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F56" t="str">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="G56" t="str">
+        <f t="shared" si="4"/>
+        <v>K01</v>
+      </c>
+      <c r="H56" t="str">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I56" t="str">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" t="s">
+        <v>367</v>
+      </c>
+      <c r="B57" t="s">
+        <v>271</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>10720133041</v>
+      </c>
+      <c r="E57" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F57" t="str">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="G57" t="str">
+        <f t="shared" si="4"/>
+        <v>K01</v>
+      </c>
+      <c r="H57" t="str">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I57" t="str">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" t="s">
+        <v>368</v>
+      </c>
+      <c r="B58" t="s">
+        <v>272</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>10720133042</v>
+      </c>
+      <c r="E58" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F58" t="str">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="G58" t="str">
+        <f t="shared" si="4"/>
+        <v>K01</v>
+      </c>
+      <c r="H58" t="str">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I58" t="str">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" t="s">
+        <v>369</v>
+      </c>
+      <c r="B59" t="s">
+        <v>273</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>10720133043</v>
+      </c>
+      <c r="E59" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F59" t="str">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" si="4"/>
+        <v>K01</v>
+      </c>
+      <c r="H59" t="str">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I59" t="str">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" t="s">
+        <v>370</v>
+      </c>
+      <c r="B60" t="s">
+        <v>281</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>10720133045</v>
+      </c>
+      <c r="E60" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F60" t="str">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="G60" t="str">
+        <f t="shared" si="4"/>
+        <v>K01</v>
+      </c>
+      <c r="H60" t="str">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I60" t="str">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" t="s">
+        <v>371</v>
+      </c>
+      <c r="B61" t="s">
+        <v>283</v>
+      </c>
+      <c r="C61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" t="s">
+        <v>372</v>
+      </c>
+      <c r="B62" t="s">
+        <v>284</v>
+      </c>
+      <c r="C62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" t="s">
+        <v>373</v>
+      </c>
+      <c r="B63" t="s">
+        <v>285</v>
+      </c>
+      <c r="C63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" t="s">
+        <v>374</v>
+      </c>
+      <c r="B64" t="s">
+        <v>286</v>
+      </c>
+      <c r="C64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>375</v>
+      </c>
+      <c r="B65" t="s">
+        <v>287</v>
+      </c>
+      <c r="C65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>376</v>
+      </c>
+      <c r="B66" t="s">
+        <v>288</v>
+      </c>
+      <c r="C66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>377</v>
+      </c>
+      <c r="B67" t="s">
+        <v>289</v>
+      </c>
+      <c r="C67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>378</v>
+      </c>
+      <c r="B68" t="s">
+        <v>290</v>
+      </c>
+      <c r="C68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>379</v>
+      </c>
+      <c r="B69" t="s">
+        <v>291</v>
+      </c>
+      <c r="C69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>380</v>
+      </c>
+      <c r="B70" t="s">
+        <v>292</v>
+      </c>
+      <c r="C70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>381</v>
+      </c>
+      <c r="B71" t="s">
+        <v>293</v>
+      </c>
+      <c r="C71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>382</v>
+      </c>
+      <c r="B72" t="s">
+        <v>294</v>
+      </c>
+      <c r="C72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>383</v>
+      </c>
+      <c r="B73" t="s">
+        <v>295</v>
+      </c>
+      <c r="C73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>384</v>
+      </c>
+      <c r="B74" t="s">
+        <v>296</v>
+      </c>
+      <c r="C74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>385</v>
+      </c>
+      <c r="B75" t="s">
+        <v>297</v>
+      </c>
+      <c r="C75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>386</v>
+      </c>
+      <c r="B76" t="s">
+        <v>298</v>
+      </c>
+      <c r="C76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>387</v>
+      </c>
+      <c r="B77" t="s">
+        <v>299</v>
+      </c>
+      <c r="C77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>388</v>
+      </c>
+      <c r="B78" t="s">
+        <v>300</v>
+      </c>
+      <c r="C78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>389</v>
+      </c>
+      <c r="B79" t="s">
+        <v>301</v>
+      </c>
+      <c r="C79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>404</v>
+      </c>
+      <c r="B80" t="s">
+        <v>405</v>
+      </c>
+      <c r="C80" t="s">
+        <v>406</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>